--- a/threshold_ac/no0.5pareto_coefficients_country_byyear.xlsx
+++ b/threshold_ac/no0.5pareto_coefficients_country_byyear.xlsx
@@ -1,36 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxu/PycharmProjects/Academic_Tools/threshold_ac/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830024E3-6267-5641-8AAA-5ABCB936299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20760" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Pareto_Coefficient</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>熵值</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>内蒙古自治区</t>
+  </si>
+  <si>
+    <t>吉林省</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>宁夏回族自治区</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>西藏自治区</t>
+  </si>
+  <si>
+    <t>贵州省</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>青海省</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>2011年熵值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年熵值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -38,9 +140,31 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,28 +198,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +303,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -167,6 +337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,9 +372,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -376,12 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -396,7 +570,7 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>0.492663513609653</v>
+        <v>0.49266351360965299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +578,7 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>0.5088761606774531</v>
+        <v>0.50887616067745312</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +586,7 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>0.4934258512904748</v>
+        <v>0.49342585129047478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +594,7 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.548941135236667</v>
+        <v>0.54894113523666699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +602,7 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.633936356051626</v>
+        <v>0.63393635605162602</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +610,7 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.6392921463238221</v>
+        <v>0.63929214632382214</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +618,7 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.6550503836020509</v>
+        <v>0.65505038360205092</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +626,7 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.6553371597645218</v>
+        <v>0.65533715976452178</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +634,7 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.6679316970099961</v>
+        <v>0.66793169700999611</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +642,7 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>0.6689439800712577</v>
+        <v>0.66894398007125766</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +650,7 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.6757361193428729</v>
+        <v>0.67573611934287292</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +658,7 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.6888119056631677</v>
+        <v>0.68881190566316775</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +666,7 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.77012305239593</v>
+        <v>0.77012305239593004</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +674,7 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>0.7395368081141536</v>
+        <v>0.73953680811415357</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +682,7 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.7677133968174311</v>
+        <v>0.76771339681743112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +690,7 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>0.763898716372413</v>
+        <v>0.76389871637241302</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +698,7 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>0.7616690869833357</v>
+        <v>0.76166908698333569</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +706,7 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>0.7616890435772075</v>
+        <v>0.76168904357720746</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -548,7 +722,7 @@
         <v>2019</v>
       </c>
       <c r="B21">
-        <v>0.7619160918068754</v>
+        <v>0.76191609180687536</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +730,7 @@
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>0.7756362139359106</v>
+        <v>0.77563621393591065</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +738,7 @@
         <v>2021</v>
       </c>
       <c r="B23">
-        <v>0.8752149640158803</v>
+        <v>0.87521496401588028</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,10 +746,422 @@
         <v>2022</v>
       </c>
       <c r="B24">
-        <v>0.8732391906905471</v>
+        <v>0.87323919069054712</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA9D62-FA85-7845-8550-2596C70AA04A}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.874</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>